--- a/3MTT PROJECTS/PreciousWilliams.xlsx
+++ b/3MTT PROJECTS/PreciousWilliams.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Williams Precious\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Williams Precious\Documents\GitHub\3MTT\3MTT PROJECTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,16 @@
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="CleanData" sheetId="2" r:id="rId3"/>
+    <sheet name="SUMMARY TABLE" sheetId="6" r:id="rId3"/>
+    <sheet name="CleanData" sheetId="2" r:id="rId4"/>
+    <sheet name="REPORT" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">CleanData!$A$1:$H$23</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">CleanData!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -461,138 +463,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -616,6 +486,138 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -633,16 +635,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -651,8 +653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943476" y="4533901"/>
-          <a:ext cx="3343274" cy="3409949"/>
+          <a:off x="1790700" y="171450"/>
+          <a:ext cx="3343274" cy="3095625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,10 +790,48 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Quantity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="85"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="85" count="17">
+        <n v="10"/>
+        <n v="15"/>
+        <n v="25"/>
+        <n v="30"/>
+        <n v="35"/>
+        <n v="40"/>
+        <n v="45"/>
+        <n v="50"/>
+        <n v="5"/>
+        <n v="20"/>
+        <n v="55"/>
+        <n v="60"/>
+        <n v="65"/>
+        <n v="70"/>
+        <n v="75"/>
+        <n v="80"/>
+        <n v="85"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Price Per Unit" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10" maxValue="160"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10" maxValue="160" count="19">
+        <n v="20"/>
+        <n v="10"/>
+        <n v="16.670000000000002"/>
+        <n v="15"/>
+        <n v="12.22"/>
+        <n v="14"/>
+        <n v="160"/>
+        <n v="45"/>
+        <n v="36.67"/>
+        <n v="34.29"/>
+        <n v="35"/>
+        <n v="33.33"/>
+        <n v="32"/>
+        <n v="30.91"/>
+        <n v="30"/>
+        <n v="30.77"/>
+        <n v="29.33"/>
+        <n v="28.75"/>
+        <n v="29.41"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -811,8 +851,8 @@
     <x v="0"/>
     <s v="Good"/>
     <s v="Magic Wand"/>
-    <n v="10"/>
-    <n v="20"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <d v="2021-02-28T00:00:00"/>
@@ -821,8 +861,8 @@
     <x v="1"/>
     <s v="Excelent"/>
     <s v="Unicorn Horn"/>
-    <n v="15"/>
-    <n v="10"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2021-04-30T00:00:00"/>
@@ -831,8 +871,8 @@
     <x v="2"/>
     <s v="Average"/>
     <s v="Fairy Dust"/>
-    <n v="25"/>
-    <n v="10"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2021-05-31T00:00:00"/>
@@ -841,8 +881,8 @@
     <x v="1"/>
     <s v="Good"/>
     <s v="Bacon Scented Candle"/>
-    <n v="30"/>
-    <n v="16.670000000000002"/>
+    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <d v="2021-07-31T00:00:00"/>
@@ -851,8 +891,8 @@
     <x v="3"/>
     <s v="Poor"/>
     <s v="Potent Potion"/>
-    <n v="35"/>
-    <n v="10"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <d v="2021-08-31T00:00:00"/>
@@ -861,8 +901,8 @@
     <x v="2"/>
     <s v="Average"/>
     <s v="Bat Signal"/>
-    <n v="40"/>
-    <n v="15"/>
+    <x v="5"/>
+    <x v="3"/>
   </r>
   <r>
     <d v="2021-09-30T00:00:00"/>
@@ -871,8 +911,8 @@
     <x v="1"/>
     <s v="Good"/>
     <s v="Glasses with X-ray Vision"/>
-    <n v="45"/>
-    <n v="12.22"/>
+    <x v="6"/>
+    <x v="4"/>
   </r>
   <r>
     <d v="2021-10-31T00:00:00"/>
@@ -881,8 +921,8 @@
     <x v="0"/>
     <s v="Excelent"/>
     <s v="Lasso of Truth"/>
-    <n v="50"/>
-    <n v="14"/>
+    <x v="7"/>
+    <x v="5"/>
   </r>
   <r>
     <d v="2021-11-30T00:00:00"/>
@@ -891,8 +931,8 @@
     <x v="3"/>
     <s v="Poor"/>
     <s v="Iron Man Suit"/>
-    <n v="5"/>
-    <n v="160"/>
+    <x v="8"/>
+    <x v="6"/>
   </r>
   <r>
     <d v="2021-12-31T00:00:00"/>
@@ -901,8 +941,8 @@
     <x v="2"/>
     <s v="Average"/>
     <s v="Captain America Shield"/>
-    <n v="20"/>
-    <n v="45"/>
+    <x v="9"/>
+    <x v="7"/>
   </r>
   <r>
     <d v="2022-02-28T00:00:00"/>
@@ -911,8 +951,8 @@
     <x v="4"/>
     <s v="Excelent"/>
     <s v="Gamma Radiation Serum"/>
-    <n v="30"/>
-    <n v="36.67"/>
+    <x v="3"/>
+    <x v="8"/>
   </r>
   <r>
     <d v="2022-03-31T00:00:00"/>
@@ -921,8 +961,8 @@
     <x v="3"/>
     <s v="Poor"/>
     <s v="Eye Patch"/>
-    <n v="35"/>
-    <n v="34.29"/>
+    <x v="4"/>
+    <x v="9"/>
   </r>
   <r>
     <d v="2022-05-31T00:00:00"/>
@@ -931,8 +971,8 @@
     <x v="1"/>
     <s v="Good"/>
     <s v="Vintage Pistol"/>
-    <n v="40"/>
-    <n v="35"/>
+    <x v="5"/>
+    <x v="10"/>
   </r>
   <r>
     <d v="2022-06-30T00:00:00"/>
@@ -941,8 +981,8 @@
     <x v="0"/>
     <s v="Excelent"/>
     <s v="Arc Reactor"/>
-    <n v="45"/>
-    <n v="33.33"/>
+    <x v="6"/>
+    <x v="11"/>
   </r>
   <r>
     <d v="2022-07-31T00:00:00"/>
@@ -951,8 +991,8 @@
     <x v="3"/>
     <s v="Poor"/>
     <s v="Ant-Man Suit"/>
-    <n v="50"/>
-    <n v="32"/>
+    <x v="7"/>
+    <x v="12"/>
   </r>
   <r>
     <d v="2022-08-31T00:00:00"/>
@@ -961,8 +1001,8 @@
     <x v="2"/>
     <s v="Average"/>
     <s v="Wasp's Wings"/>
-    <n v="55"/>
-    <n v="30.91"/>
+    <x v="10"/>
+    <x v="13"/>
   </r>
   <r>
     <d v="2022-09-30T00:00:00"/>
@@ -971,8 +1011,8 @@
     <x v="1"/>
     <s v="Good"/>
     <s v="Comic Book"/>
-    <n v="60"/>
-    <n v="30"/>
+    <x v="11"/>
+    <x v="14"/>
   </r>
   <r>
     <d v="2022-11-30T00:00:00"/>
@@ -981,8 +1021,8 @@
     <x v="3"/>
     <s v="Poor"/>
     <s v="Notepads"/>
-    <n v="65"/>
-    <n v="30.77"/>
+    <x v="12"/>
+    <x v="15"/>
   </r>
   <r>
     <d v="2022-12-31T00:00:00"/>
@@ -991,8 +1031,8 @@
     <x v="2"/>
     <s v="Average"/>
     <s v="Pen Set"/>
-    <n v="70"/>
-    <n v="30"/>
+    <x v="13"/>
+    <x v="14"/>
   </r>
   <r>
     <d v="2023-01-31T00:00:00"/>
@@ -1001,8 +1041,8 @@
     <x v="5"/>
     <s v="Mischief"/>
     <s v="Trickster's Hat"/>
-    <n v="75"/>
-    <n v="29.33"/>
+    <x v="14"/>
+    <x v="16"/>
   </r>
   <r>
     <d v="2023-02-28T00:00:00"/>
@@ -1011,8 +1051,8 @@
     <x v="5"/>
     <s v="Worthy"/>
     <s v="Mjolnir"/>
-    <n v="80"/>
-    <n v="28.75"/>
+    <x v="15"/>
+    <x v="17"/>
   </r>
   <r>
     <d v="2023-04-30T00:00:00"/>
@@ -1021,8 +1061,8 @@
     <x v="2"/>
     <s v="Leader"/>
     <s v="Leadership Manual"/>
-    <n v="85"/>
-    <n v="29.41"/>
+    <x v="16"/>
+    <x v="18"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -1092,6 +1132,131 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="18">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Quantity" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Price Per Unit" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="REGION">
   <location ref="C27:E34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
@@ -1156,26 +1321,26 @@
     <dataField name="Sum of Price Per Unit" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="11">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="17">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -1216,14 +1381,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:H23" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:H23"/>
   <tableColumns count="8">
-    <tableColumn id="17" uniqueName="17" name="Date" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="18" uniqueName="18" name="ID" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="19" uniqueName="19" name="Name" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="20" uniqueName="20" name="Region" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="21" uniqueName="21" name="Rating" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="22" uniqueName="22" name="Product" queryTableFieldId="6" dataDxfId="14"/>
-    <tableColumn id="23" uniqueName="23" name="Quantity" queryTableFieldId="7" dataDxfId="13"/>
-    <tableColumn id="24" uniqueName="24" name="Price Per Unit" queryTableFieldId="8" dataDxfId="12"/>
+    <tableColumn id="17" uniqueName="17" name="Date" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="18" uniqueName="18" name="ID" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="19" uniqueName="19" name="Name" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="20" uniqueName="20" name="Region" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="21" uniqueName="21" name="Rating" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="22" uniqueName="22" name="Product" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="23" uniqueName="23" name="Quantity" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="24" uniqueName="24" name="Price Per Unit" queryTableFieldId="8" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1589,10 +1754,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9">
+        <v>155</v>
+      </c>
+      <c r="C4" s="9">
+        <v>58.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
+        <v>190</v>
+      </c>
+      <c r="C5" s="9">
+        <v>103.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>105</v>
+      </c>
+      <c r="C6" s="9">
+        <v>67.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9">
+        <v>295</v>
+      </c>
+      <c r="C7" s="9">
+        <v>160.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9">
+        <v>190</v>
+      </c>
+      <c r="C8" s="9">
+        <v>267.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="9">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="9">
+        <v>965</v>
+      </c>
+      <c r="C10" s="9">
+        <v>693.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,10 +2596,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
